--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H2">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N2">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q2">
-        <v>82.22620687774332</v>
+        <v>92.23188957868624</v>
       </c>
       <c r="R2">
-        <v>740.03586189969</v>
+        <v>830.087006208176</v>
       </c>
       <c r="S2">
-        <v>0.1928691276745129</v>
+        <v>0.2094429279618636</v>
       </c>
       <c r="T2">
-        <v>0.1928691276745129</v>
+        <v>0.2094429279618636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H3">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P3">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q3">
-        <v>147.6041892456216</v>
+        <v>135.0596389700325</v>
       </c>
       <c r="R3">
-        <v>1328.437703210594</v>
+        <v>1215.536750730292</v>
       </c>
       <c r="S3">
-        <v>0.346219195824445</v>
+        <v>0.3066974596809377</v>
       </c>
       <c r="T3">
-        <v>0.3462191958244452</v>
+        <v>0.3066974596809377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H4">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N4">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O4">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P4">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q4">
-        <v>17.04256406423311</v>
+        <v>17.26660054504711</v>
       </c>
       <c r="R4">
-        <v>153.383076578098</v>
+        <v>155.399404905424</v>
       </c>
       <c r="S4">
-        <v>0.03997490081590215</v>
+        <v>0.03920951192285103</v>
       </c>
       <c r="T4">
-        <v>0.03997490081590216</v>
+        <v>0.03920951192285103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H5">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I5">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J5">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N5">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O5">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P5">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q5">
-        <v>0.2429168182128889</v>
+        <v>0.02540927574933333</v>
       </c>
       <c r="R5">
-        <v>2.186251363916</v>
+        <v>0.228683481744</v>
       </c>
       <c r="S5">
-        <v>0.000569783729606401</v>
+        <v>5.770014183424642E-05</v>
       </c>
       <c r="T5">
-        <v>0.0005697837296064011</v>
+        <v>5.770014183424642E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N6">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q6">
-        <v>41.37011064629167</v>
+        <v>50.7143228755889</v>
       </c>
       <c r="R6">
-        <v>372.330995816625</v>
+        <v>456.4289058803001</v>
       </c>
       <c r="S6">
-        <v>0.09703739787014402</v>
+        <v>0.1151635982000007</v>
       </c>
       <c r="T6">
-        <v>0.09703739787014404</v>
+        <v>0.1151635982000007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.262925</v>
       </c>
       <c r="I7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P7">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q7">
         <v>74.26344802730279</v>
@@ -883,10 +883,10 @@
         <v>668.3710322457251</v>
       </c>
       <c r="S7">
-        <v>0.1741917447368515</v>
+        <v>0.1686396545319866</v>
       </c>
       <c r="T7">
-        <v>0.1741917447368516</v>
+        <v>0.1686396545319866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.262925</v>
       </c>
       <c r="I8">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J8">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N8">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O8">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P8">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q8">
-        <v>8.574550472480556</v>
+        <v>9.494156077744446</v>
       </c>
       <c r="R8">
-        <v>77.170954252325</v>
+        <v>85.44740469970002</v>
       </c>
       <c r="S8">
-        <v>0.02011239643204364</v>
+        <v>0.02155961302032389</v>
       </c>
       <c r="T8">
-        <v>0.02011239643204364</v>
+        <v>0.0215596130203239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.262925</v>
       </c>
       <c r="I9">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J9">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N9">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O9">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P9">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q9">
-        <v>0.1222176727944445</v>
+        <v>0.01397146063333334</v>
       </c>
       <c r="R9">
-        <v>1.09995905515</v>
+        <v>0.1257431457</v>
       </c>
       <c r="S9">
-        <v>0.0002866727875860941</v>
+        <v>3.172680985195239E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002866727875860942</v>
+        <v>3.172680985195239E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H10">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N10">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q10">
-        <v>16.343114776885</v>
+        <v>18.92004699012534</v>
       </c>
       <c r="R10">
-        <v>147.088032991965</v>
+        <v>170.280422911128</v>
       </c>
       <c r="S10">
-        <v>0.03833427820875736</v>
+        <v>0.04296420746543637</v>
       </c>
       <c r="T10">
-        <v>0.03833427820875736</v>
+        <v>0.04296420746543638</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H11">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I11">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J11">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>38.717137</v>
       </c>
       <c r="O11">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P11">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q11">
-        <v>29.33751048466766</v>
+        <v>27.70554444298067</v>
       </c>
       <c r="R11">
-        <v>264.037594362009</v>
+        <v>249.349899986826</v>
       </c>
       <c r="S11">
-        <v>0.0688138279774072</v>
+        <v>0.06291457732701985</v>
       </c>
       <c r="T11">
-        <v>0.06881382797740725</v>
+        <v>0.06291457732701985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H12">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I12">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J12">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N12">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O12">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P12">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q12">
-        <v>3.387345606350332</v>
+        <v>3.541995021074666</v>
       </c>
       <c r="R12">
-        <v>30.48611045715299</v>
+        <v>31.877955189672</v>
       </c>
       <c r="S12">
-        <v>0.007945330534342319</v>
+        <v>0.008043268021819356</v>
       </c>
       <c r="T12">
-        <v>0.007945330534342323</v>
+        <v>0.008043268021819358</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H13">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I13">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J13">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N13">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O13">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P13">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q13">
-        <v>0.04828165608066666</v>
+        <v>0.005212347848</v>
       </c>
       <c r="R13">
-        <v>0.4345349047259999</v>
+        <v>0.046911130632</v>
       </c>
       <c r="S13">
-        <v>0.0001132490630974194</v>
+        <v>1.183635508095582E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001132490630974195</v>
+        <v>1.183635508095582E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H14">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I14">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J14">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N14">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O14">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P14">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q14">
-        <v>1.919650492093333</v>
+        <v>4.195367417136</v>
       </c>
       <c r="R14">
-        <v>17.27685442884</v>
+        <v>37.758306754224</v>
       </c>
       <c r="S14">
-        <v>0.004502716711722793</v>
+        <v>0.009526965561852924</v>
       </c>
       <c r="T14">
-        <v>0.004502716711722795</v>
+        <v>0.009526965561852924</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H15">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I15">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J15">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>38.717137</v>
       </c>
       <c r="O15">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P15">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q15">
-        <v>3.445962853931556</v>
+        <v>6.143480430612001</v>
       </c>
       <c r="R15">
-        <v>31.01366568538401</v>
+        <v>55.29132387550801</v>
       </c>
       <c r="S15">
-        <v>0.008082822677503937</v>
+        <v>0.01395079874370407</v>
       </c>
       <c r="T15">
-        <v>0.00808282267750394</v>
+        <v>0.01395079874370407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H16">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I16">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J16">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N16">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O16">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P16">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q16">
-        <v>0.3978751755031111</v>
+        <v>0.7854087524640001</v>
       </c>
       <c r="R16">
-        <v>3.580876579528</v>
+        <v>7.068678772176001</v>
       </c>
       <c r="S16">
-        <v>0.0009332528026827886</v>
+        <v>0.001783529639416045</v>
       </c>
       <c r="T16">
-        <v>0.0009332528026827889</v>
+        <v>0.001783529639416045</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H17">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I17">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J17">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N17">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O17">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P17">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q17">
-        <v>0.005671128552888888</v>
+        <v>0.001155795984</v>
       </c>
       <c r="R17">
-        <v>0.051040156976</v>
+        <v>0.010402163856</v>
       </c>
       <c r="S17">
-        <v>1.330215339437923E-05</v>
+        <v>2.624616020785329E-06</v>
       </c>
       <c r="T17">
-        <v>1.330215339437924E-05</v>
+        <v>2.624616020785329E-06</v>
       </c>
     </row>
   </sheetData>
